--- a/parse_table.xlsx
+++ b/parse_table.xlsx
@@ -157,100 +157,110 @@
       </c>
       <c r="AD1" t="inlineStr">
         <is>
+          <t>TYPE_NAME</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
           <t>[</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>]</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>break</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>char</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>continue</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>double</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>else</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>include</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>int</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>printf</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>struct</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
         <is>
           <t>union</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>void</t>
         </is>
       </c>
-      <c r="AT1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>while</t>
         </is>
       </c>
-      <c r="AU1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
         <is>
           <t>{</t>
         </is>
       </c>
-      <c r="AV1" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>||</t>
         </is>
       </c>
-      <c r="AW1" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>}</t>
         </is>
@@ -307,7 +317,7 @@
           <t>AddExpr -&gt; MulExpr AddTail</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>AddExpr -&gt; MulExpr AddTail</t>
         </is>
@@ -384,12 +394,17 @@
           <t>AddTail -&gt; epsilon</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>AddTail -&gt; epsilon</t>
         </is>
       </c>
-      <c r="AV3" t="inlineStr">
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>AddTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
         <is>
           <t>AddTail -&gt; epsilon</t>
         </is>
@@ -446,7 +461,7 @@
           <t>AndExpr -&gt; EqExpr AndTail</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>AndExpr -&gt; EqExpr AndTail</t>
         </is>
@@ -483,12 +498,17 @@
           <t>AndTail -&gt; epsilon</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>AndTail -&gt; epsilon</t>
         </is>
       </c>
-      <c r="AV5" t="inlineStr">
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>AndTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
         <is>
           <t>AndTail -&gt; epsilon</t>
         </is>
@@ -545,7 +565,7 @@
           <t>ArgList -&gt; Expr ArgListTail</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>ArgList -&gt; Expr ArgListTail</t>
         </is>
@@ -607,7 +627,7 @@
           <t>ArgListOpt -&gt; ArgList</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>ArgListOpt -&gt; ArgList</t>
         </is>
@@ -656,7 +676,7 @@
           <t>ArraySuffixOpt -&gt; epsilon</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>ArraySuffixOpt -&gt; [ INT_CONST ] ArraySuffixOpt</t>
         </is>
@@ -713,7 +733,7 @@
           <t>AssignExpr -&gt; OrExpr AssignTail</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>AssignExpr -&gt; OrExpr AssignTail</t>
         </is>
@@ -745,7 +765,12 @@
           <t>AssignTail -&gt; = AssignExpr</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>AssignTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
         <is>
           <t>AssignTail -&gt; epsilon</t>
         </is>
@@ -757,27 +782,27 @@
           <t>BasicType</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>BasicType -&gt; char</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AJ12" t="inlineStr">
         <is>
           <t>BasicType -&gt; double</t>
         </is>
       </c>
-      <c r="AK12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>BasicType -&gt; float</t>
         </is>
       </c>
-      <c r="AO12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>BasicType -&gt; int</t>
         </is>
       </c>
-      <c r="AS12" t="inlineStr">
+      <c r="AU12" t="inlineStr">
         <is>
           <t>BasicType -&gt; void</t>
         </is>
@@ -789,7 +814,7 @@
           <t>BreakStmt</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>BreakStmt -&gt; break ;</t>
         </is>
@@ -828,7 +853,7 @@
           <t>CompoundStmt</t>
         </is>
       </c>
-      <c r="AU15" t="inlineStr">
+      <c r="AW15" t="inlineStr">
         <is>
           <t>CompoundStmt -&gt; { StmtListOpt }</t>
         </is>
@@ -840,7 +865,7 @@
           <t>ContinueStmt</t>
         </is>
       </c>
-      <c r="AH16" t="inlineStr">
+      <c r="AI16" t="inlineStr">
         <is>
           <t>ContinueStmt -&gt; continue ;</t>
         </is>
@@ -852,32 +877,42 @@
           <t>Decl</t>
         </is>
       </c>
-      <c r="AG17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>Decl -&gt; TypeSpec InitDeclList ;</t>
         </is>
       </c>
-      <c r="AI17" t="inlineStr">
+      <c r="AH17" t="inlineStr">
         <is>
           <t>Decl -&gt; TypeSpec InitDeclList ;</t>
         </is>
       </c>
-      <c r="AK17" t="inlineStr">
+      <c r="AJ17" t="inlineStr">
         <is>
           <t>Decl -&gt; TypeSpec InitDeclList ;</t>
         </is>
       </c>
-      <c r="AO17" t="inlineStr">
+      <c r="AL17" t="inlineStr">
         <is>
           <t>Decl -&gt; TypeSpec InitDeclList ;</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AP17" t="inlineStr">
         <is>
           <t>Decl -&gt; TypeSpec InitDeclList ;</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
+        <is>
+          <t>Decl -&gt; TypeSpec InitDeclList ;</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>Decl -&gt; TypeSpec InitDeclList ;</t>
+        </is>
+      </c>
+      <c r="AU17" t="inlineStr">
         <is>
           <t>Decl -&gt; TypeSpec InitDeclList ;</t>
         </is>
@@ -889,32 +924,42 @@
           <t>DeclForInit</t>
         </is>
       </c>
-      <c r="AG18" t="inlineStr">
+      <c r="AD18" t="inlineStr">
         <is>
           <t>DeclForInit -&gt; TypeSpec InitDeclList</t>
         </is>
       </c>
-      <c r="AI18" t="inlineStr">
+      <c r="AH18" t="inlineStr">
         <is>
           <t>DeclForInit -&gt; TypeSpec InitDeclList</t>
         </is>
       </c>
-      <c r="AK18" t="inlineStr">
+      <c r="AJ18" t="inlineStr">
         <is>
           <t>DeclForInit -&gt; TypeSpec InitDeclList</t>
         </is>
       </c>
-      <c r="AO18" t="inlineStr">
+      <c r="AL18" t="inlineStr">
         <is>
           <t>DeclForInit -&gt; TypeSpec InitDeclList</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AP18" t="inlineStr">
         <is>
           <t>DeclForInit -&gt; TypeSpec InitDeclList</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
+        <is>
+          <t>DeclForInit -&gt; TypeSpec InitDeclList</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>DeclForInit -&gt; TypeSpec InitDeclList</t>
+        </is>
+      </c>
+      <c r="AU18" t="inlineStr">
         <is>
           <t>DeclForInit -&gt; TypeSpec InitDeclList</t>
         </is>
@@ -926,27 +971,27 @@
           <t>DeclList</t>
         </is>
       </c>
-      <c r="AG19" t="inlineStr">
+      <c r="AD19" t="inlineStr">
         <is>
           <t>DeclList -&gt; Decl DeclList</t>
         </is>
       </c>
-      <c r="AI19" t="inlineStr">
+      <c r="AH19" t="inlineStr">
         <is>
           <t>DeclList -&gt; Decl DeclList</t>
         </is>
       </c>
-      <c r="AK19" t="inlineStr">
+      <c r="AJ19" t="inlineStr">
         <is>
           <t>DeclList -&gt; Decl DeclList</t>
         </is>
       </c>
-      <c r="AO19" t="inlineStr">
+      <c r="AL19" t="inlineStr">
         <is>
           <t>DeclList -&gt; Decl DeclList</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AP19" t="inlineStr">
         <is>
           <t>DeclList -&gt; Decl DeclList</t>
         </is>
@@ -956,7 +1001,17 @@
           <t>DeclList -&gt; Decl DeclList</t>
         </is>
       </c>
-      <c r="AW19" t="inlineStr">
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>DeclList -&gt; Decl DeclList</t>
+        </is>
+      </c>
+      <c r="AU19" t="inlineStr">
+        <is>
+          <t>DeclList -&gt; Decl DeclList</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
         <is>
           <t>DeclList -&gt; epsilon</t>
         </is>
@@ -968,27 +1023,27 @@
           <t>DeclListOpt</t>
         </is>
       </c>
-      <c r="AG20" t="inlineStr">
+      <c r="AD20" t="inlineStr">
         <is>
           <t>DeclListOpt -&gt; DeclList</t>
         </is>
       </c>
-      <c r="AI20" t="inlineStr">
+      <c r="AH20" t="inlineStr">
         <is>
           <t>DeclListOpt -&gt; DeclList</t>
         </is>
       </c>
-      <c r="AK20" t="inlineStr">
+      <c r="AJ20" t="inlineStr">
         <is>
           <t>DeclListOpt -&gt; DeclList</t>
         </is>
       </c>
-      <c r="AO20" t="inlineStr">
+      <c r="AL20" t="inlineStr">
         <is>
           <t>DeclListOpt -&gt; DeclList</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AP20" t="inlineStr">
         <is>
           <t>DeclListOpt -&gt; DeclList</t>
         </is>
@@ -998,7 +1053,17 @@
           <t>DeclListOpt -&gt; DeclList</t>
         </is>
       </c>
-      <c r="AW20" t="inlineStr">
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>DeclListOpt -&gt; DeclList</t>
+        </is>
+      </c>
+      <c r="AU20" t="inlineStr">
+        <is>
+          <t>DeclListOpt -&gt; DeclList</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
         <is>
           <t>DeclListOpt -&gt; DeclList</t>
         </is>
@@ -1060,7 +1125,7 @@
           <t>ElseOpt -&gt; epsilon</t>
         </is>
       </c>
-      <c r="AF21" t="inlineStr">
+      <c r="AD21" t="inlineStr">
         <is>
           <t>ElseOpt -&gt; epsilon</t>
         </is>
@@ -1082,60 +1147,70 @@
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
+          <t>ElseOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
           <t>ElseOpt -&gt; else Stmt</t>
         </is>
       </c>
-      <c r="AK21" t="inlineStr">
+      <c r="AL21" t="inlineStr">
         <is>
           <t>ElseOpt -&gt; epsilon</t>
         </is>
       </c>
-      <c r="AL21" t="inlineStr">
+      <c r="AM21" t="inlineStr">
         <is>
           <t>ElseOpt -&gt; epsilon</t>
         </is>
       </c>
-      <c r="AM21" t="inlineStr">
+      <c r="AN21" t="inlineStr">
         <is>
           <t>ElseOpt -&gt; epsilon</t>
         </is>
       </c>
-      <c r="AO21" t="inlineStr">
+      <c r="AP21" t="inlineStr">
         <is>
           <t>ElseOpt -&gt; epsilon</t>
         </is>
       </c>
-      <c r="AP21" t="inlineStr">
+      <c r="AQ21" t="inlineStr">
         <is>
           <t>ElseOpt -&gt; epsilon</t>
         </is>
       </c>
-      <c r="AQ21" t="inlineStr">
+      <c r="AR21" t="inlineStr">
         <is>
           <t>ElseOpt -&gt; epsilon</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
+      <c r="AS21" t="inlineStr">
         <is>
           <t>ElseOpt -&gt; epsilon</t>
         </is>
       </c>
-      <c r="AS21" t="inlineStr">
+      <c r="AT21" t="inlineStr">
         <is>
           <t>ElseOpt -&gt; epsilon</t>
         </is>
       </c>
-      <c r="AT21" t="inlineStr">
+      <c r="AU21" t="inlineStr">
         <is>
           <t>ElseOpt -&gt; epsilon</t>
         </is>
       </c>
-      <c r="AU21" t="inlineStr">
+      <c r="AV21" t="inlineStr">
         <is>
           <t>ElseOpt -&gt; epsilon</t>
         </is>
       </c>
       <c r="AW21" t="inlineStr">
+        <is>
+          <t>ElseOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
         <is>
           <t>ElseOpt -&gt; epsilon</t>
         </is>
@@ -1192,7 +1267,7 @@
           <t>EqExpr -&gt; RelExpr EqTail</t>
         </is>
       </c>
-      <c r="AP22" t="inlineStr">
+      <c r="AQ22" t="inlineStr">
         <is>
           <t>EqExpr -&gt; RelExpr EqTail</t>
         </is>
@@ -1239,12 +1314,17 @@
           <t>EqTail -&gt; == RelExpr EqTail</t>
         </is>
       </c>
-      <c r="AE23" t="inlineStr">
+      <c r="AF23" t="inlineStr">
         <is>
           <t>EqTail -&gt; epsilon</t>
         </is>
       </c>
-      <c r="AV23" t="inlineStr">
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>EqTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
         <is>
           <t>EqTail -&gt; epsilon</t>
         </is>
@@ -1301,7 +1381,7 @@
           <t>Expr -&gt; AssignExpr</t>
         </is>
       </c>
-      <c r="AP24" t="inlineStr">
+      <c r="AQ24" t="inlineStr">
         <is>
           <t>Expr -&gt; AssignExpr</t>
         </is>
@@ -1368,7 +1448,7 @@
           <t>ExprOpt -&gt; Expr</t>
         </is>
       </c>
-      <c r="AP25" t="inlineStr">
+      <c r="AQ25" t="inlineStr">
         <is>
           <t>ExprOpt -&gt; Expr</t>
         </is>
@@ -1430,7 +1510,7 @@
           <t>ExprStmt -&gt; Expr ;</t>
         </is>
       </c>
-      <c r="AP26" t="inlineStr">
+      <c r="AQ26" t="inlineStr">
         <is>
           <t>ExprStmt -&gt; Expr ;</t>
         </is>
@@ -1462,7 +1542,7 @@
           <t>ExtAfterId -&gt; VarDeclRest ;</t>
         </is>
       </c>
-      <c r="AD27" t="inlineStr">
+      <c r="AE27" t="inlineStr">
         <is>
           <t>ExtAfterId -&gt; VarDeclRest ;</t>
         </is>
@@ -1471,1689 +1551,2255 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ExtDef</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>ExtDef -&gt; Preprocess</t>
-        </is>
-      </c>
-      <c r="AG28" t="inlineStr">
-        <is>
-          <t>ExtDef -&gt; TypeSpec ID ExtAfterId</t>
-        </is>
-      </c>
-      <c r="AI28" t="inlineStr">
-        <is>
-          <t>ExtDef -&gt; TypeSpec ID ExtAfterId</t>
-        </is>
-      </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t>ExtDef -&gt; TypeSpec ID ExtAfterId</t>
-        </is>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>ExtDef -&gt; TypeSpec ID ExtAfterId</t>
-        </is>
-      </c>
-      <c r="AR28" t="inlineStr">
-        <is>
-          <t>ExtDef -&gt; TypeSpec ID ExtAfterId</t>
-        </is>
-      </c>
-      <c r="AS28" t="inlineStr">
-        <is>
-          <t>ExtDef -&gt; TypeSpec ID ExtAfterId</t>
+          <t>ExtAfterTypeSpec</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>ExtAfterTypeSpec -&gt; PtrOpt ID ExtAfterId</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>ExtAfterTypeSpec -&gt; ;</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>ExtAfterTypeSpec -&gt; PtrOpt ID ExtAfterId</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ExtList</t>
+          <t>ExtDef</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ExtList -&gt; ExtDef ExtList</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>ExtList -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="AG29" t="inlineStr">
-        <is>
-          <t>ExtList -&gt; ExtDef ExtList</t>
-        </is>
-      </c>
-      <c r="AI29" t="inlineStr">
-        <is>
-          <t>ExtList -&gt; ExtDef ExtList</t>
-        </is>
-      </c>
-      <c r="AK29" t="inlineStr">
-        <is>
-          <t>ExtList -&gt; ExtDef ExtList</t>
-        </is>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>ExtList -&gt; ExtDef ExtList</t>
-        </is>
-      </c>
-      <c r="AR29" t="inlineStr">
-        <is>
-          <t>ExtList -&gt; ExtDef ExtList</t>
+          <t>ExtDef -&gt; Preprocess</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>ExtDef -&gt; TypeSpec ExtAfterTypeSpec</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>ExtDef -&gt; TypeSpec ExtAfterTypeSpec</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>ExtDef -&gt; TypeSpec ExtAfterTypeSpec</t>
+        </is>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>ExtDef -&gt; TypeSpec ExtAfterTypeSpec</t>
+        </is>
+      </c>
+      <c r="AP29" t="inlineStr">
+        <is>
+          <t>ExtDef -&gt; TypeSpec ExtAfterTypeSpec</t>
         </is>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>ExtList -&gt; ExtDef ExtList</t>
+          <t>ExtDef -&gt; TypeSpec ExtAfterTypeSpec</t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr">
+        <is>
+          <t>ExtDef -&gt; TypeSpec ExtAfterTypeSpec</t>
+        </is>
+      </c>
+      <c r="AU29" t="inlineStr">
+        <is>
+          <t>ExtDef -&gt; TypeSpec ExtAfterTypeSpec</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ForInitOpt</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>ForInitOpt -&gt; Expr</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>ForInitOpt -&gt; Expr</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>ForInitOpt -&gt; Expr</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>ForInitOpt -&gt; Expr</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>ForInitOpt -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>ForInitOpt -&gt; Expr</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>ForInitOpt -&gt; Expr</t>
-        </is>
-      </c>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>ForInitOpt -&gt; Expr</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>ForInitOpt -&gt; Expr</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>ForInitOpt -&gt; Expr</t>
-        </is>
-      </c>
-      <c r="AG30" t="inlineStr">
-        <is>
-          <t>ForInitOpt -&gt; DeclForInit</t>
-        </is>
-      </c>
-      <c r="AI30" t="inlineStr">
-        <is>
-          <t>ForInitOpt -&gt; DeclForInit</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>ForInitOpt -&gt; DeclForInit</t>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>ForInitOpt -&gt; DeclForInit</t>
+          <t>ExtList</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ExtList -&gt; ExtDef ExtList</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>ExtList -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>ExtList -&gt; ExtDef ExtList</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>ExtList -&gt; ExtDef ExtList</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>ExtList -&gt; ExtDef ExtList</t>
+        </is>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>ExtList -&gt; ExtDef ExtList</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>ForInitOpt -&gt; Expr</t>
-        </is>
-      </c>
-      <c r="AR30" t="inlineStr">
-        <is>
-          <t>ForInitOpt -&gt; DeclForInit</t>
+          <t>ExtList -&gt; ExtDef ExtList</t>
         </is>
       </c>
       <c r="AS30" t="inlineStr">
         <is>
-          <t>ForInitOpt -&gt; DeclForInit</t>
+          <t>ExtList -&gt; ExtDef ExtList</t>
+        </is>
+      </c>
+      <c r="AT30" t="inlineStr">
+        <is>
+          <t>ExtList -&gt; ExtDef ExtList</t>
+        </is>
+      </c>
+      <c r="AU30" t="inlineStr">
+        <is>
+          <t>ExtList -&gt; ExtDef ExtList</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ForStmt</t>
+          <t>ForInitOpt</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ForInitOpt -&gt; Expr</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>ForInitOpt -&gt; Expr</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ForInitOpt -&gt; Expr</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>ForInitOpt -&gt; Expr</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>ForInitOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>ForInitOpt -&gt; Expr</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>ForInitOpt -&gt; Expr</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>ForInitOpt -&gt; Expr</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>ForInitOpt -&gt; Expr</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>ForInitOpt -&gt; Expr</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>ForInitOpt -&gt; DeclForInit</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>ForInitOpt -&gt; DeclForInit</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>ForInitOpt -&gt; DeclForInit</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>ForStmt -&gt; for ( ForInitOpt ; ExprOpt ; ExprOpt ) Stmt</t>
+          <t>ForInitOpt -&gt; DeclForInit</t>
+        </is>
+      </c>
+      <c r="AP31" t="inlineStr">
+        <is>
+          <t>ForInitOpt -&gt; DeclForInit</t>
+        </is>
+      </c>
+      <c r="AQ31" t="inlineStr">
+        <is>
+          <t>ForInitOpt -&gt; Expr</t>
+        </is>
+      </c>
+      <c r="AS31" t="inlineStr">
+        <is>
+          <t>ForInitOpt -&gt; DeclForInit</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr">
+        <is>
+          <t>ForInitOpt -&gt; DeclForInit</t>
+        </is>
+      </c>
+      <c r="AU31" t="inlineStr">
+        <is>
+          <t>ForInitOpt -&gt; DeclForInit</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>FuncDef</t>
-        </is>
-      </c>
-      <c r="AG32" t="inlineStr">
-        <is>
-          <t>FuncDef -&gt; TypeSpec ID ( ParamListOpt ) CompoundStmt</t>
-        </is>
-      </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>FuncDef -&gt; TypeSpec ID ( ParamListOpt ) CompoundStmt</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>FuncDef -&gt; TypeSpec ID ( ParamListOpt ) CompoundStmt</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>FuncDef -&gt; TypeSpec ID ( ParamListOpt ) CompoundStmt</t>
-        </is>
-      </c>
-      <c r="AR32" t="inlineStr">
-        <is>
-          <t>FuncDef -&gt; TypeSpec ID ( ParamListOpt ) CompoundStmt</t>
-        </is>
-      </c>
-      <c r="AS32" t="inlineStr">
-        <is>
-          <t>FuncDef -&gt; TypeSpec ID ( ParamListOpt ) CompoundStmt</t>
+          <t>ForStmt</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>ForStmt -&gt; for ( ForInitOpt ; ExprOpt ; ExprOpt ) Stmt</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Header</t>
-        </is>
-      </c>
-      <c r="AA33" t="inlineStr">
-        <is>
-          <t>Header -&gt; ID HeaderRest</t>
+          <t>FuncDef</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>FuncDef -&gt; TypeSpec ID ( ParamListOpt ) CompoundStmt</t>
+        </is>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>FuncDef -&gt; TypeSpec ID ( ParamListOpt ) CompoundStmt</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>FuncDef -&gt; TypeSpec ID ( ParamListOpt ) CompoundStmt</t>
+        </is>
+      </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>FuncDef -&gt; TypeSpec ID ( ParamListOpt ) CompoundStmt</t>
+        </is>
+      </c>
+      <c r="AP33" t="inlineStr">
+        <is>
+          <t>FuncDef -&gt; TypeSpec ID ( ParamListOpt ) CompoundStmt</t>
+        </is>
+      </c>
+      <c r="AS33" t="inlineStr">
+        <is>
+          <t>FuncDef -&gt; TypeSpec ID ( ParamListOpt ) CompoundStmt</t>
+        </is>
+      </c>
+      <c r="AT33" t="inlineStr">
+        <is>
+          <t>FuncDef -&gt; TypeSpec ID ( ParamListOpt ) CompoundStmt</t>
+        </is>
+      </c>
+      <c r="AU33" t="inlineStr">
+        <is>
+          <t>FuncDef -&gt; TypeSpec ID ( ParamListOpt ) CompoundStmt</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HeaderRest</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>HeaderRest -&gt; . ID</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>HeaderRest -&gt; epsilon</t>
+          <t>Header</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>Header -&gt; ID HeaderRest</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IfStmt</t>
-        </is>
-      </c>
-      <c r="AM35" t="inlineStr">
-        <is>
-          <t>IfStmt -&gt; if ( Expr ) Stmt ElseOpt</t>
+          <t>HeaderRest</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>HeaderRest -&gt; . ID</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>HeaderRest -&gt; epsilon</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>InitDecl</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>InitDecl -&gt; ID ArraySuffixOpt InitOpt</t>
+          <t>IfStmt</t>
+        </is>
+      </c>
+      <c r="AN36" t="inlineStr">
+        <is>
+          <t>IfStmt -&gt; if ( Expr ) Stmt ElseOpt</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>InitDeclList</t>
+          <t>InitDecl</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>InitDecl -&gt; PtrOpt ID ArraySuffixOpt InitOpt</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>InitDeclList -&gt; InitDecl InitDeclListTail</t>
+          <t>InitDecl -&gt; PtrOpt ID ArraySuffixOpt InitOpt</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>InitDeclListTail</t>
+          <t>InitDeclList</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>InitDeclList -&gt; InitDecl InitDeclListTail</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>InitDeclListTail -&gt; , InitDecl InitDeclListTail</t>
+          <t>InitDeclList -&gt; InitDecl InitDeclListTail</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>InitDeclListTail -&gt; epsilon</t>
+          <t>InitDeclList -&gt; InitDecl InitDeclListTail</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>InitDeclList -&gt; InitDecl InitDeclListTail</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>InitOpt</t>
+          <t>InitDeclListTail</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>InitOpt -&gt; epsilon</t>
+          <t>InitDeclListTail -&gt; , InitDecl InitDeclListTail</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>InitOpt -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>InitOpt -&gt; = Expr</t>
+          <t>InitDeclListTail -&gt; epsilon</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MulExpr</t>
+          <t>InitList</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MulExpr -&gt; UnaryExpr MulTail</t>
+          <t>InitList -&gt; Initializer InitListTail</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>MulExpr -&gt; UnaryExpr MulTail</t>
+          <t>InitList -&gt; Initializer InitListTail</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>MulExpr -&gt; UnaryExpr MulTail</t>
+          <t>InitList -&gt; Initializer InitListTail</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>MulExpr -&gt; UnaryExpr MulTail</t>
+          <t>InitList -&gt; Initializer InitListTail</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>MulExpr -&gt; UnaryExpr MulTail</t>
+          <t>InitList -&gt; Initializer InitListTail</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>MulExpr -&gt; UnaryExpr MulTail</t>
+          <t>InitList -&gt; Initializer InitListTail</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>MulExpr -&gt; UnaryExpr MulTail</t>
+          <t>InitList -&gt; Initializer InitListTail</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>MulExpr -&gt; UnaryExpr MulTail</t>
+          <t>InitList -&gt; Initializer InitListTail</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>MulExpr -&gt; UnaryExpr MulTail</t>
-        </is>
-      </c>
-      <c r="AP40" t="inlineStr">
-        <is>
-          <t>MulExpr -&gt; UnaryExpr MulTail</t>
+          <t>InitList -&gt; Initializer InitListTail</t>
+        </is>
+      </c>
+      <c r="AQ40" t="inlineStr">
+        <is>
+          <t>InitList -&gt; Initializer InitListTail</t>
+        </is>
+      </c>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>InitList -&gt; Initializer InitListTail</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MulTail</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>MulTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>MulTail -&gt; % UnaryExpr MulTail</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>MulTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>MulTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>MulTail -&gt; * UnaryExpr MulTail</t>
+          <t>InitListOpt</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>InitListOpt -&gt; InitList</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>InitListOpt -&gt; InitList</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>MulTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>MulTail -&gt; epsilon</t>
+          <t>InitListOpt -&gt; InitList</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>MulTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>MulTail -&gt; / UnaryExpr MulTail</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>MulTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>MulTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>MulTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>MulTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>MulTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>MulTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>MulTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="AE41" t="inlineStr">
-        <is>
-          <t>MulTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="AV41" t="inlineStr">
-        <is>
-          <t>MulTail -&gt; epsilon</t>
+          <t>InitListOpt -&gt; InitList</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>InitListOpt -&gt; InitList</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>InitListOpt -&gt; InitList</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>InitListOpt -&gt; InitList</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>InitListOpt -&gt; InitList</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>InitListOpt -&gt; InitList</t>
+        </is>
+      </c>
+      <c r="AQ41" t="inlineStr">
+        <is>
+          <t>InitListOpt -&gt; InitList</t>
+        </is>
+      </c>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>InitListOpt -&gt; InitList</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr">
+        <is>
+          <t>InitListOpt -&gt; epsilon</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>OrExpr</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>OrExpr -&gt; AndExpr OrTail</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>OrExpr -&gt; AndExpr OrTail</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>OrExpr -&gt; AndExpr OrTail</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>OrExpr -&gt; AndExpr OrTail</t>
-        </is>
-      </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>OrExpr -&gt; AndExpr OrTail</t>
-        </is>
-      </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>OrExpr -&gt; AndExpr OrTail</t>
-        </is>
-      </c>
-      <c r="AA42" t="inlineStr">
-        <is>
-          <t>OrExpr -&gt; AndExpr OrTail</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>OrExpr -&gt; AndExpr OrTail</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>OrExpr -&gt; AndExpr OrTail</t>
-        </is>
-      </c>
-      <c r="AP42" t="inlineStr">
-        <is>
-          <t>OrExpr -&gt; AndExpr OrTail</t>
+          <t>InitListTail</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>InitListTail -&gt; , Initializer InitListTail</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr">
+        <is>
+          <t>InitListTail -&gt; epsilon</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>OrTail</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>OrTail -&gt; epsilon</t>
+          <t>InitOpt</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>OrTail -&gt; epsilon</t>
+          <t>InitOpt -&gt; epsilon</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>OrTail -&gt; epsilon</t>
+          <t>InitOpt -&gt; epsilon</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>OrTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="AE43" t="inlineStr">
-        <is>
-          <t>OrTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="AV43" t="inlineStr">
-        <is>
-          <t>OrTail -&gt; || AndExpr OrTail</t>
+          <t>InitOpt -&gt; = Initializer</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>P -&gt; ExtList EOF</t>
-        </is>
-      </c>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>P -&gt; ExtList EOF</t>
-        </is>
-      </c>
-      <c r="AG44" t="inlineStr">
-        <is>
-          <t>P -&gt; ExtList EOF</t>
-        </is>
-      </c>
-      <c r="AI44" t="inlineStr">
-        <is>
-          <t>P -&gt; ExtList EOF</t>
-        </is>
-      </c>
-      <c r="AK44" t="inlineStr">
-        <is>
-          <t>P -&gt; ExtList EOF</t>
-        </is>
-      </c>
-      <c r="AO44" t="inlineStr">
-        <is>
-          <t>P -&gt; ExtList EOF</t>
-        </is>
-      </c>
-      <c r="AR44" t="inlineStr">
-        <is>
-          <t>P -&gt; ExtList EOF</t>
-        </is>
-      </c>
-      <c r="AS44" t="inlineStr">
-        <is>
-          <t>P -&gt; ExtList EOF</t>
+          <t>Initializer</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Initializer -&gt; Expr</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Initializer -&gt; Expr</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Initializer -&gt; Expr</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Initializer -&gt; Expr</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Initializer -&gt; Expr</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>Initializer -&gt; Expr</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>Initializer -&gt; Expr</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Initializer -&gt; Expr</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>Initializer -&gt; Expr</t>
+        </is>
+      </c>
+      <c r="AQ44" t="inlineStr">
+        <is>
+          <t>Initializer -&gt; Expr</t>
+        </is>
+      </c>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Initializer -&gt; { InitListOpt }</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Param</t>
-        </is>
-      </c>
-      <c r="AG45" t="inlineStr">
-        <is>
-          <t>Param -&gt; TypeSpec ID ArraySuffixOpt</t>
-        </is>
-      </c>
-      <c r="AI45" t="inlineStr">
-        <is>
-          <t>Param -&gt; TypeSpec ID ArraySuffixOpt</t>
-        </is>
-      </c>
-      <c r="AK45" t="inlineStr">
-        <is>
-          <t>Param -&gt; TypeSpec ID ArraySuffixOpt</t>
-        </is>
-      </c>
-      <c r="AO45" t="inlineStr">
-        <is>
-          <t>Param -&gt; TypeSpec ID ArraySuffixOpt</t>
-        </is>
-      </c>
-      <c r="AR45" t="inlineStr">
-        <is>
-          <t>Param -&gt; TypeSpec ID ArraySuffixOpt</t>
-        </is>
-      </c>
-      <c r="AS45" t="inlineStr">
-        <is>
-          <t>Param -&gt; TypeSpec ID ArraySuffixOpt</t>
+          <t>MulExpr</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MulExpr -&gt; UnaryExpr MulTail</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>MulExpr -&gt; UnaryExpr MulTail</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>MulExpr -&gt; UnaryExpr MulTail</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>MulExpr -&gt; UnaryExpr MulTail</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>MulExpr -&gt; UnaryExpr MulTail</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>MulExpr -&gt; UnaryExpr MulTail</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>MulExpr -&gt; UnaryExpr MulTail</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>MulExpr -&gt; UnaryExpr MulTail</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>MulExpr -&gt; UnaryExpr MulTail</t>
+        </is>
+      </c>
+      <c r="AQ45" t="inlineStr">
+        <is>
+          <t>MulExpr -&gt; UnaryExpr MulTail</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ParamList</t>
-        </is>
-      </c>
-      <c r="AG46" t="inlineStr">
-        <is>
-          <t>ParamList -&gt; Param ParamListTail</t>
-        </is>
-      </c>
-      <c r="AI46" t="inlineStr">
-        <is>
-          <t>ParamList -&gt; Param ParamListTail</t>
-        </is>
-      </c>
-      <c r="AK46" t="inlineStr">
-        <is>
-          <t>ParamList -&gt; Param ParamListTail</t>
-        </is>
-      </c>
-      <c r="AO46" t="inlineStr">
-        <is>
-          <t>ParamList -&gt; Param ParamListTail</t>
-        </is>
-      </c>
-      <c r="AR46" t="inlineStr">
-        <is>
-          <t>ParamList -&gt; Param ParamListTail</t>
-        </is>
-      </c>
-      <c r="AS46" t="inlineStr">
-        <is>
-          <t>ParamList -&gt; Param ParamListTail</t>
+          <t>MulTail</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MulTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>MulTail -&gt; % UnaryExpr MulTail</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>MulTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>MulTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>MulTail -&gt; * UnaryExpr MulTail</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>MulTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>MulTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>MulTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>MulTail -&gt; / UnaryExpr MulTail</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>MulTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>MulTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>MulTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>MulTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>MulTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>MulTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>MulTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>MulTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>MulTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr">
+        <is>
+          <t>MulTail -&gt; epsilon</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ParamListOpt</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ParamListOpt -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="AG47" t="inlineStr">
-        <is>
-          <t>ParamListOpt -&gt; ParamList</t>
-        </is>
-      </c>
-      <c r="AI47" t="inlineStr">
-        <is>
-          <t>ParamListOpt -&gt; ParamList</t>
-        </is>
-      </c>
-      <c r="AK47" t="inlineStr">
-        <is>
-          <t>ParamListOpt -&gt; ParamList</t>
-        </is>
-      </c>
-      <c r="AO47" t="inlineStr">
-        <is>
-          <t>ParamListOpt -&gt; ParamList</t>
-        </is>
-      </c>
-      <c r="AR47" t="inlineStr">
-        <is>
-          <t>ParamListOpt -&gt; ParamList</t>
-        </is>
-      </c>
-      <c r="AS47" t="inlineStr">
-        <is>
-          <t>ParamListOpt -&gt; ParamList</t>
+          <t>OrExpr</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>OrExpr -&gt; AndExpr OrTail</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>OrExpr -&gt; AndExpr OrTail</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>OrExpr -&gt; AndExpr OrTail</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>OrExpr -&gt; AndExpr OrTail</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>OrExpr -&gt; AndExpr OrTail</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>OrExpr -&gt; AndExpr OrTail</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>OrExpr -&gt; AndExpr OrTail</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>OrExpr -&gt; AndExpr OrTail</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>OrExpr -&gt; AndExpr OrTail</t>
+        </is>
+      </c>
+      <c r="AQ47" t="inlineStr">
+        <is>
+          <t>OrExpr -&gt; AndExpr OrTail</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ParamListTail</t>
+          <t>OrTail</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>ParamListTail -&gt; epsilon</t>
+          <t>OrTail -&gt; epsilon</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>ParamListTail -&gt; , Param ParamListTail</t>
+          <t>OrTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>OrTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>OrTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>OrTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>OrTail -&gt; || AndExpr OrTail</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr">
+        <is>
+          <t>OrTail -&gt; epsilon</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PostfixExpr</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>PostfixExpr -&gt; Primary PostfixTail</t>
-        </is>
-      </c>
-      <c r="X49" t="inlineStr">
-        <is>
-          <t>PostfixExpr -&gt; Primary PostfixTail</t>
-        </is>
-      </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>PostfixExpr -&gt; Primary PostfixTail</t>
-        </is>
-      </c>
-      <c r="AA49" t="inlineStr">
-        <is>
-          <t>PostfixExpr -&gt; Primary PostfixTail</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>PostfixExpr -&gt; Primary PostfixTail</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>PostfixExpr -&gt; Primary PostfixTail</t>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>P -&gt; ExtList EOF</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>P -&gt; ExtList EOF</t>
+        </is>
+      </c>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>P -&gt; ExtList EOF</t>
+        </is>
+      </c>
+      <c r="AH49" t="inlineStr">
+        <is>
+          <t>P -&gt; ExtList EOF</t>
+        </is>
+      </c>
+      <c r="AJ49" t="inlineStr">
+        <is>
+          <t>P -&gt; ExtList EOF</t>
+        </is>
+      </c>
+      <c r="AL49" t="inlineStr">
+        <is>
+          <t>P -&gt; ExtList EOF</t>
         </is>
       </c>
       <c r="AP49" t="inlineStr">
         <is>
-          <t>PostfixExpr -&gt; Primary PostfixTail</t>
+          <t>P -&gt; ExtList EOF</t>
+        </is>
+      </c>
+      <c r="AS49" t="inlineStr">
+        <is>
+          <t>P -&gt; ExtList EOF</t>
+        </is>
+      </c>
+      <c r="AT49" t="inlineStr">
+        <is>
+          <t>P -&gt; ExtList EOF</t>
+        </is>
+      </c>
+      <c r="AU49" t="inlineStr">
+        <is>
+          <t>P -&gt; ExtList EOF</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PostfixTail</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>PostfixTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>PostfixTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>PostfixTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>PostfixTail -&gt; ( ArgListOpt ) PostfixTail</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PostfixTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>PostfixTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>PostfixTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>PostfixTail -&gt; ++ PostfixTail</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>PostfixTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>PostfixTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>PostfixTail -&gt; -- PostfixTail</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>PostfixTail -&gt; . ID PostfixTail</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>PostfixTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>PostfixTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>PostfixTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>PostfixTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>PostfixTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>PostfixTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>PostfixTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>PostfixTail -&gt; epsilon</t>
+          <t>Param</t>
         </is>
       </c>
       <c r="AD50" t="inlineStr">
         <is>
-          <t>PostfixTail -&gt; [ Expr ] PostfixTail</t>
-        </is>
-      </c>
-      <c r="AE50" t="inlineStr">
-        <is>
-          <t>PostfixTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="AV50" t="inlineStr">
-        <is>
-          <t>PostfixTail -&gt; epsilon</t>
+          <t>Param -&gt; TypeSpec PtrOpt ID ArraySuffixOpt</t>
+        </is>
+      </c>
+      <c r="AH50" t="inlineStr">
+        <is>
+          <t>Param -&gt; TypeSpec PtrOpt ID ArraySuffixOpt</t>
+        </is>
+      </c>
+      <c r="AJ50" t="inlineStr">
+        <is>
+          <t>Param -&gt; TypeSpec PtrOpt ID ArraySuffixOpt</t>
+        </is>
+      </c>
+      <c r="AL50" t="inlineStr">
+        <is>
+          <t>Param -&gt; TypeSpec PtrOpt ID ArraySuffixOpt</t>
+        </is>
+      </c>
+      <c r="AP50" t="inlineStr">
+        <is>
+          <t>Param -&gt; TypeSpec PtrOpt ID ArraySuffixOpt</t>
+        </is>
+      </c>
+      <c r="AS50" t="inlineStr">
+        <is>
+          <t>Param -&gt; TypeSpec PtrOpt ID ArraySuffixOpt</t>
+        </is>
+      </c>
+      <c r="AT50" t="inlineStr">
+        <is>
+          <t>Param -&gt; TypeSpec PtrOpt ID ArraySuffixOpt</t>
+        </is>
+      </c>
+      <c r="AU50" t="inlineStr">
+        <is>
+          <t>Param -&gt; TypeSpec PtrOpt ID ArraySuffixOpt</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Preprocess</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Preprocess -&gt; # include &lt; Header &gt;</t>
+          <t>ParamList</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>ParamList -&gt; Param ParamListTail</t>
+        </is>
+      </c>
+      <c r="AH51" t="inlineStr">
+        <is>
+          <t>ParamList -&gt; Param ParamListTail</t>
+        </is>
+      </c>
+      <c r="AJ51" t="inlineStr">
+        <is>
+          <t>ParamList -&gt; Param ParamListTail</t>
+        </is>
+      </c>
+      <c r="AL51" t="inlineStr">
+        <is>
+          <t>ParamList -&gt; Param ParamListTail</t>
+        </is>
+      </c>
+      <c r="AP51" t="inlineStr">
+        <is>
+          <t>ParamList -&gt; Param ParamListTail</t>
+        </is>
+      </c>
+      <c r="AS51" t="inlineStr">
+        <is>
+          <t>ParamList -&gt; Param ParamListTail</t>
+        </is>
+      </c>
+      <c r="AT51" t="inlineStr">
+        <is>
+          <t>ParamList -&gt; Param ParamListTail</t>
+        </is>
+      </c>
+      <c r="AU51" t="inlineStr">
+        <is>
+          <t>ParamList -&gt; Param ParamListTail</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Primary</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Primary -&gt; ( Expr )</t>
-        </is>
-      </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>Primary -&gt; CONSTANT</t>
-        </is>
-      </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>Primary -&gt; CONSTANT</t>
-        </is>
-      </c>
-      <c r="AA52" t="inlineStr">
-        <is>
-          <t>Primary -&gt; ID</t>
-        </is>
-      </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>Primary -&gt; CONSTANT</t>
-        </is>
-      </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>Primary -&gt; CONSTANT</t>
+          <t>ParamListOpt</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>ParamListOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>ParamListOpt -&gt; ParamList</t>
+        </is>
+      </c>
+      <c r="AH52" t="inlineStr">
+        <is>
+          <t>ParamListOpt -&gt; ParamList</t>
+        </is>
+      </c>
+      <c r="AJ52" t="inlineStr">
+        <is>
+          <t>ParamListOpt -&gt; ParamList</t>
+        </is>
+      </c>
+      <c r="AL52" t="inlineStr">
+        <is>
+          <t>ParamListOpt -&gt; ParamList</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
         <is>
-          <t>Primary -&gt; printf</t>
+          <t>ParamListOpt -&gt; ParamList</t>
+        </is>
+      </c>
+      <c r="AS52" t="inlineStr">
+        <is>
+          <t>ParamListOpt -&gt; ParamList</t>
+        </is>
+      </c>
+      <c r="AT52" t="inlineStr">
+        <is>
+          <t>ParamListOpt -&gt; ParamList</t>
+        </is>
+      </c>
+      <c r="AU52" t="inlineStr">
+        <is>
+          <t>ParamListOpt -&gt; ParamList</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RelExpr</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>RelExpr -&gt; AddExpr RelTail</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>RelExpr -&gt; AddExpr RelTail</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>RelExpr -&gt; AddExpr RelTail</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>RelExpr -&gt; AddExpr RelTail</t>
-        </is>
-      </c>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>RelExpr -&gt; AddExpr RelTail</t>
-        </is>
-      </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>RelExpr -&gt; AddExpr RelTail</t>
-        </is>
-      </c>
-      <c r="AA53" t="inlineStr">
-        <is>
-          <t>RelExpr -&gt; AddExpr RelTail</t>
-        </is>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>RelExpr -&gt; AddExpr RelTail</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>RelExpr -&gt; AddExpr RelTail</t>
-        </is>
-      </c>
-      <c r="AP53" t="inlineStr">
-        <is>
-          <t>RelExpr -&gt; AddExpr RelTail</t>
+          <t>ParamListTail</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>ParamListTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>ParamListTail -&gt; , Param ParamListTail</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RelTail</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>RelTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>RelTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>RelTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>RelTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>RelTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>RelTail -&gt; &lt; AddExpr RelTail</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>RelTail -&gt; &lt;= AddExpr RelTail</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>RelTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>RelTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>RelTail -&gt; &gt; AddExpr RelTail</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>RelTail -&gt; &gt;= AddExpr RelTail</t>
-        </is>
-      </c>
-      <c r="AE54" t="inlineStr">
-        <is>
-          <t>RelTail -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="AV54" t="inlineStr">
-        <is>
-          <t>RelTail -&gt; epsilon</t>
+          <t>PostfixExpr</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>PostfixExpr -&gt; Primary PostfixTail</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>PostfixExpr -&gt; Primary PostfixTail</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>PostfixExpr -&gt; Primary PostfixTail</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>PostfixExpr -&gt; Primary PostfixTail</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>PostfixExpr -&gt; Primary PostfixTail</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>PostfixExpr -&gt; Primary PostfixTail</t>
+        </is>
+      </c>
+      <c r="AQ54" t="inlineStr">
+        <is>
+          <t>PostfixExpr -&gt; Primary PostfixTail</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ReturnStmt</t>
-        </is>
-      </c>
-      <c r="AQ55" t="inlineStr">
-        <is>
-          <t>ReturnStmt -&gt; return ExprOpt ;</t>
+          <t>PostfixTail</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PostfixTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>PostfixTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>PostfixTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>PostfixTail -&gt; ( ArgListOpt ) PostfixTail</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>PostfixTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>PostfixTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PostfixTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>PostfixTail -&gt; ++ PostfixTail</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>PostfixTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>PostfixTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>PostfixTail -&gt; -- PostfixTail</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>PostfixTail -&gt; . ID PostfixTail</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>PostfixTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>PostfixTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>PostfixTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>PostfixTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>PostfixTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>PostfixTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>PostfixTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>PostfixTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>PostfixTail -&gt; [ Expr ] PostfixTail</t>
+        </is>
+      </c>
+      <c r="AF55" t="inlineStr">
+        <is>
+          <t>PostfixTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>PostfixTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr">
+        <is>
+          <t>PostfixTail -&gt; epsilon</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Stmt</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Stmt -&gt; ExprStmt</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Stmt -&gt; ExprStmt</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Stmt -&gt; ExprStmt</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>Stmt -&gt; ExprStmt</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>Stmt -&gt; ExprStmt</t>
-        </is>
-      </c>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>Stmt -&gt; ExprStmt</t>
-        </is>
-      </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>Stmt -&gt; ExprStmt</t>
-        </is>
-      </c>
-      <c r="AA56" t="inlineStr">
-        <is>
-          <t>Stmt -&gt; ExprStmt</t>
-        </is>
-      </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>Stmt -&gt; ExprStmt</t>
-        </is>
-      </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>Stmt -&gt; ExprStmt</t>
-        </is>
-      </c>
-      <c r="AF56" t="inlineStr">
-        <is>
-          <t>Stmt -&gt; BreakStmt</t>
-        </is>
-      </c>
-      <c r="AG56" t="inlineStr">
-        <is>
-          <t>Stmt -&gt; Decl</t>
-        </is>
-      </c>
-      <c r="AH56" t="inlineStr">
-        <is>
-          <t>Stmt -&gt; ContinueStmt</t>
-        </is>
-      </c>
-      <c r="AI56" t="inlineStr">
-        <is>
-          <t>Stmt -&gt; Decl</t>
-        </is>
-      </c>
-      <c r="AK56" t="inlineStr">
-        <is>
-          <t>Stmt -&gt; Decl</t>
-        </is>
-      </c>
-      <c r="AL56" t="inlineStr">
-        <is>
-          <t>Stmt -&gt; ForStmt</t>
-        </is>
-      </c>
-      <c r="AM56" t="inlineStr">
-        <is>
-          <t>Stmt -&gt; IfStmt</t>
-        </is>
-      </c>
-      <c r="AO56" t="inlineStr">
-        <is>
-          <t>Stmt -&gt; Decl</t>
-        </is>
-      </c>
-      <c r="AP56" t="inlineStr">
-        <is>
-          <t>Stmt -&gt; ExprStmt</t>
-        </is>
-      </c>
-      <c r="AQ56" t="inlineStr">
-        <is>
-          <t>Stmt -&gt; ReturnStmt</t>
-        </is>
-      </c>
-      <c r="AR56" t="inlineStr">
-        <is>
-          <t>Stmt -&gt; Decl</t>
-        </is>
-      </c>
-      <c r="AS56" t="inlineStr">
-        <is>
-          <t>Stmt -&gt; Decl</t>
-        </is>
-      </c>
-      <c r="AT56" t="inlineStr">
-        <is>
-          <t>Stmt -&gt; WhileStmt</t>
-        </is>
-      </c>
-      <c r="AU56" t="inlineStr">
-        <is>
-          <t>Stmt -&gt; CompoundStmt</t>
+          <t>Preprocess</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Preprocess -&gt; # include &lt; Header &gt;</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>StmtList</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>StmtList -&gt; Stmt StmtList</t>
+          <t>Primary</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>StmtList -&gt; Stmt StmtList</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>StmtList -&gt; Stmt StmtList</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>StmtList -&gt; Stmt StmtList</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>StmtList -&gt; Stmt StmtList</t>
+          <t>Primary -&gt; ( Expr )</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>StmtList -&gt; Stmt StmtList</t>
+          <t>Primary -&gt; CONSTANT</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>StmtList -&gt; Stmt StmtList</t>
+          <t>Primary -&gt; CONSTANT</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>StmtList -&gt; Stmt StmtList</t>
+          <t>Primary -&gt; ID</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>StmtList -&gt; Stmt StmtList</t>
+          <t>Primary -&gt; CONSTANT</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>StmtList -&gt; Stmt StmtList</t>
-        </is>
-      </c>
-      <c r="AF57" t="inlineStr">
-        <is>
-          <t>StmtList -&gt; Stmt StmtList</t>
-        </is>
-      </c>
-      <c r="AG57" t="inlineStr">
-        <is>
-          <t>StmtList -&gt; Stmt StmtList</t>
-        </is>
-      </c>
-      <c r="AH57" t="inlineStr">
-        <is>
-          <t>StmtList -&gt; Stmt StmtList</t>
-        </is>
-      </c>
-      <c r="AI57" t="inlineStr">
-        <is>
-          <t>StmtList -&gt; Stmt StmtList</t>
-        </is>
-      </c>
-      <c r="AK57" t="inlineStr">
-        <is>
-          <t>StmtList -&gt; Stmt StmtList</t>
-        </is>
-      </c>
-      <c r="AL57" t="inlineStr">
-        <is>
-          <t>StmtList -&gt; Stmt StmtList</t>
-        </is>
-      </c>
-      <c r="AM57" t="inlineStr">
-        <is>
-          <t>StmtList -&gt; Stmt StmtList</t>
-        </is>
-      </c>
-      <c r="AO57" t="inlineStr">
-        <is>
-          <t>StmtList -&gt; Stmt StmtList</t>
-        </is>
-      </c>
-      <c r="AP57" t="inlineStr">
-        <is>
-          <t>StmtList -&gt; Stmt StmtList</t>
+          <t>Primary -&gt; CONSTANT</t>
         </is>
       </c>
       <c r="AQ57" t="inlineStr">
         <is>
-          <t>StmtList -&gt; Stmt StmtList</t>
-        </is>
-      </c>
-      <c r="AR57" t="inlineStr">
-        <is>
-          <t>StmtList -&gt; Stmt StmtList</t>
-        </is>
-      </c>
-      <c r="AS57" t="inlineStr">
-        <is>
-          <t>StmtList -&gt; Stmt StmtList</t>
-        </is>
-      </c>
-      <c r="AT57" t="inlineStr">
-        <is>
-          <t>StmtList -&gt; Stmt StmtList</t>
-        </is>
-      </c>
-      <c r="AU57" t="inlineStr">
-        <is>
-          <t>StmtList -&gt; Stmt StmtList</t>
-        </is>
-      </c>
-      <c r="AW57" t="inlineStr">
-        <is>
-          <t>StmtList -&gt; epsilon</t>
+          <t>Primary -&gt; printf</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>StmtListOpt</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>StmtListOpt -&gt; StmtList</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>StmtListOpt -&gt; StmtList</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>StmtListOpt -&gt; StmtList</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>StmtListOpt -&gt; StmtList</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>StmtListOpt -&gt; StmtList</t>
-        </is>
-      </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>StmtListOpt -&gt; StmtList</t>
-        </is>
-      </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>StmtListOpt -&gt; StmtList</t>
+          <t>PtrOpt</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>PtrOpt -&gt; * PtrOpt</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>StmtListOpt -&gt; StmtList</t>
-        </is>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>StmtListOpt -&gt; StmtList</t>
-        </is>
-      </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>StmtListOpt -&gt; StmtList</t>
-        </is>
-      </c>
-      <c r="AF58" t="inlineStr">
-        <is>
-          <t>StmtListOpt -&gt; StmtList</t>
-        </is>
-      </c>
-      <c r="AG58" t="inlineStr">
-        <is>
-          <t>StmtListOpt -&gt; StmtList</t>
-        </is>
-      </c>
-      <c r="AH58" t="inlineStr">
-        <is>
-          <t>StmtListOpt -&gt; StmtList</t>
-        </is>
-      </c>
-      <c r="AI58" t="inlineStr">
-        <is>
-          <t>StmtListOpt -&gt; StmtList</t>
-        </is>
-      </c>
-      <c r="AK58" t="inlineStr">
-        <is>
-          <t>StmtListOpt -&gt; StmtList</t>
-        </is>
-      </c>
-      <c r="AL58" t="inlineStr">
-        <is>
-          <t>StmtListOpt -&gt; StmtList</t>
-        </is>
-      </c>
-      <c r="AM58" t="inlineStr">
-        <is>
-          <t>StmtListOpt -&gt; StmtList</t>
-        </is>
-      </c>
-      <c r="AO58" t="inlineStr">
-        <is>
-          <t>StmtListOpt -&gt; StmtList</t>
-        </is>
-      </c>
-      <c r="AP58" t="inlineStr">
-        <is>
-          <t>StmtListOpt -&gt; StmtList</t>
-        </is>
-      </c>
-      <c r="AQ58" t="inlineStr">
-        <is>
-          <t>StmtListOpt -&gt; StmtList</t>
-        </is>
-      </c>
-      <c r="AR58" t="inlineStr">
-        <is>
-          <t>StmtListOpt -&gt; StmtList</t>
-        </is>
-      </c>
-      <c r="AS58" t="inlineStr">
-        <is>
-          <t>StmtListOpt -&gt; StmtList</t>
-        </is>
-      </c>
-      <c r="AT58" t="inlineStr">
-        <is>
-          <t>StmtListOpt -&gt; StmtList</t>
-        </is>
-      </c>
-      <c r="AU58" t="inlineStr">
-        <is>
-          <t>StmtListOpt -&gt; StmtList</t>
-        </is>
-      </c>
-      <c r="AW58" t="inlineStr">
-        <is>
-          <t>StmtListOpt -&gt; StmtList</t>
+          <t>PtrOpt -&gt; epsilon</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TypeSpec</t>
-        </is>
-      </c>
-      <c r="AG59" t="inlineStr">
-        <is>
-          <t>TypeSpec -&gt; BasicType</t>
-        </is>
-      </c>
-      <c r="AI59" t="inlineStr">
-        <is>
-          <t>TypeSpec -&gt; BasicType</t>
-        </is>
-      </c>
-      <c r="AK59" t="inlineStr">
-        <is>
-          <t>TypeSpec -&gt; BasicType</t>
-        </is>
-      </c>
-      <c r="AO59" t="inlineStr">
-        <is>
-          <t>TypeSpec -&gt; BasicType</t>
-        </is>
-      </c>
-      <c r="AR59" t="inlineStr">
-        <is>
-          <t>TypeSpec -&gt; UnionSpec</t>
-        </is>
-      </c>
-      <c r="AS59" t="inlineStr">
-        <is>
-          <t>TypeSpec -&gt; BasicType</t>
+          <t>RelExpr</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>RelExpr -&gt; AddExpr RelTail</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>RelExpr -&gt; AddExpr RelTail</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>RelExpr -&gt; AddExpr RelTail</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>RelExpr -&gt; AddExpr RelTail</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>RelExpr -&gt; AddExpr RelTail</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>RelExpr -&gt; AddExpr RelTail</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>RelExpr -&gt; AddExpr RelTail</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>RelExpr -&gt; AddExpr RelTail</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>RelExpr -&gt; AddExpr RelTail</t>
+        </is>
+      </c>
+      <c r="AQ59" t="inlineStr">
+        <is>
+          <t>RelExpr -&gt; AddExpr RelTail</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>UnaryExpr</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>UnaryExpr -&gt; ! UnaryExpr</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>UnaryExpr -&gt; PostfixExpr</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>UnaryExpr -&gt; + UnaryExpr</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>UnaryExpr -&gt; - UnaryExpr</t>
-        </is>
-      </c>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>UnaryExpr -&gt; PostfixExpr</t>
-        </is>
-      </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>UnaryExpr -&gt; PostfixExpr</t>
-        </is>
-      </c>
-      <c r="AA60" t="inlineStr">
-        <is>
-          <t>UnaryExpr -&gt; PostfixExpr</t>
-        </is>
-      </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>UnaryExpr -&gt; PostfixExpr</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>UnaryExpr -&gt; PostfixExpr</t>
-        </is>
-      </c>
-      <c r="AP60" t="inlineStr">
-        <is>
-          <t>UnaryExpr -&gt; PostfixExpr</t>
+          <t>RelTail</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>RelTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>RelTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>RelTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>RelTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>RelTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>RelTail -&gt; &lt; AddExpr RelTail</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>RelTail -&gt; &lt;= AddExpr RelTail</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>RelTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>RelTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>RelTail -&gt; &gt; AddExpr RelTail</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>RelTail -&gt; &gt;= AddExpr RelTail</t>
+        </is>
+      </c>
+      <c r="AF60" t="inlineStr">
+        <is>
+          <t>RelTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AX60" t="inlineStr">
+        <is>
+          <t>RelTail -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AY60" t="inlineStr">
+        <is>
+          <t>RelTail -&gt; epsilon</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>UnionBodyOpt</t>
-        </is>
-      </c>
-      <c r="AA61" t="inlineStr">
-        <is>
-          <t>UnionBodyOpt -&gt; epsilon</t>
-        </is>
-      </c>
-      <c r="AU61" t="inlineStr">
-        <is>
-          <t>UnionBodyOpt -&gt; { DeclListOpt }</t>
+          <t>ReturnStmt</t>
+        </is>
+      </c>
+      <c r="AR61" t="inlineStr">
+        <is>
+          <t>ReturnStmt -&gt; return ExprOpt ;</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>UnionSpec</t>
+          <t>Stmt</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Stmt -&gt; ExprStmt</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Stmt -&gt; ExprStmt</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Stmt -&gt; ExprStmt</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Stmt -&gt; ExprStmt</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Stmt -&gt; ExprStmt</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>Stmt -&gt; ExprStmt</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>Stmt -&gt; ExprStmt</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>Stmt -&gt; ExprStmt</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Stmt -&gt; ExprStmt</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>Stmt -&gt; ExprStmt</t>
+        </is>
+      </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>Stmt -&gt; Decl</t>
+        </is>
+      </c>
+      <c r="AG62" t="inlineStr">
+        <is>
+          <t>Stmt -&gt; BreakStmt</t>
+        </is>
+      </c>
+      <c r="AH62" t="inlineStr">
+        <is>
+          <t>Stmt -&gt; Decl</t>
+        </is>
+      </c>
+      <c r="AI62" t="inlineStr">
+        <is>
+          <t>Stmt -&gt; ContinueStmt</t>
+        </is>
+      </c>
+      <c r="AJ62" t="inlineStr">
+        <is>
+          <t>Stmt -&gt; Decl</t>
+        </is>
+      </c>
+      <c r="AL62" t="inlineStr">
+        <is>
+          <t>Stmt -&gt; Decl</t>
+        </is>
+      </c>
+      <c r="AM62" t="inlineStr">
+        <is>
+          <t>Stmt -&gt; ForStmt</t>
+        </is>
+      </c>
+      <c r="AN62" t="inlineStr">
+        <is>
+          <t>Stmt -&gt; IfStmt</t>
+        </is>
+      </c>
+      <c r="AP62" t="inlineStr">
+        <is>
+          <t>Stmt -&gt; Decl</t>
+        </is>
+      </c>
+      <c r="AQ62" t="inlineStr">
+        <is>
+          <t>Stmt -&gt; ExprStmt</t>
         </is>
       </c>
       <c r="AR62" t="inlineStr">
         <is>
-          <t>UnionSpec -&gt; union ID UnionBodyOpt</t>
+          <t>Stmt -&gt; ReturnStmt</t>
+        </is>
+      </c>
+      <c r="AS62" t="inlineStr">
+        <is>
+          <t>Stmt -&gt; Decl</t>
+        </is>
+      </c>
+      <c r="AT62" t="inlineStr">
+        <is>
+          <t>Stmt -&gt; Decl</t>
+        </is>
+      </c>
+      <c r="AU62" t="inlineStr">
+        <is>
+          <t>Stmt -&gt; Decl</t>
+        </is>
+      </c>
+      <c r="AV62" t="inlineStr">
+        <is>
+          <t>Stmt -&gt; WhileStmt</t>
+        </is>
+      </c>
+      <c r="AW62" t="inlineStr">
+        <is>
+          <t>Stmt -&gt; CompoundStmt</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>VarDeclMore</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>VarDeclMore -&gt; , InitDecl VarDeclMore</t>
+          <t>StmtList</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>StmtList -&gt; Stmt StmtList</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>StmtList -&gt; Stmt StmtList</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>StmtList -&gt; Stmt StmtList</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>StmtList -&gt; Stmt StmtList</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>VarDeclMore -&gt; epsilon</t>
+          <t>StmtList -&gt; Stmt StmtList</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>StmtList -&gt; Stmt StmtList</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>StmtList -&gt; Stmt StmtList</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>StmtList -&gt; Stmt StmtList</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>StmtList -&gt; Stmt StmtList</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>StmtList -&gt; Stmt StmtList</t>
+        </is>
+      </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>StmtList -&gt; Stmt StmtList</t>
+        </is>
+      </c>
+      <c r="AG63" t="inlineStr">
+        <is>
+          <t>StmtList -&gt; Stmt StmtList</t>
+        </is>
+      </c>
+      <c r="AH63" t="inlineStr">
+        <is>
+          <t>StmtList -&gt; Stmt StmtList</t>
+        </is>
+      </c>
+      <c r="AI63" t="inlineStr">
+        <is>
+          <t>StmtList -&gt; Stmt StmtList</t>
+        </is>
+      </c>
+      <c r="AJ63" t="inlineStr">
+        <is>
+          <t>StmtList -&gt; Stmt StmtList</t>
+        </is>
+      </c>
+      <c r="AL63" t="inlineStr">
+        <is>
+          <t>StmtList -&gt; Stmt StmtList</t>
+        </is>
+      </c>
+      <c r="AM63" t="inlineStr">
+        <is>
+          <t>StmtList -&gt; Stmt StmtList</t>
+        </is>
+      </c>
+      <c r="AN63" t="inlineStr">
+        <is>
+          <t>StmtList -&gt; Stmt StmtList</t>
+        </is>
+      </c>
+      <c r="AP63" t="inlineStr">
+        <is>
+          <t>StmtList -&gt; Stmt StmtList</t>
+        </is>
+      </c>
+      <c r="AQ63" t="inlineStr">
+        <is>
+          <t>StmtList -&gt; Stmt StmtList</t>
+        </is>
+      </c>
+      <c r="AR63" t="inlineStr">
+        <is>
+          <t>StmtList -&gt; Stmt StmtList</t>
+        </is>
+      </c>
+      <c r="AS63" t="inlineStr">
+        <is>
+          <t>StmtList -&gt; Stmt StmtList</t>
+        </is>
+      </c>
+      <c r="AT63" t="inlineStr">
+        <is>
+          <t>StmtList -&gt; Stmt StmtList</t>
+        </is>
+      </c>
+      <c r="AU63" t="inlineStr">
+        <is>
+          <t>StmtList -&gt; Stmt StmtList</t>
+        </is>
+      </c>
+      <c r="AV63" t="inlineStr">
+        <is>
+          <t>StmtList -&gt; Stmt StmtList</t>
+        </is>
+      </c>
+      <c r="AW63" t="inlineStr">
+        <is>
+          <t>StmtList -&gt; Stmt StmtList</t>
+        </is>
+      </c>
+      <c r="AY63" t="inlineStr">
+        <is>
+          <t>StmtList -&gt; epsilon</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>VarDeclRest</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>VarDeclRest -&gt; ArraySuffixOpt InitOpt VarDeclMore</t>
+          <t>StmtListOpt</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>StmtListOpt -&gt; StmtList</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>StmtListOpt -&gt; StmtList</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>StmtListOpt -&gt; StmtList</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>StmtListOpt -&gt; StmtList</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>VarDeclRest -&gt; ArraySuffixOpt InitOpt VarDeclMore</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>VarDeclRest -&gt; ArraySuffixOpt InitOpt VarDeclMore</t>
+          <t>StmtListOpt -&gt; StmtList</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>StmtListOpt -&gt; StmtList</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>StmtListOpt -&gt; StmtList</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>StmtListOpt -&gt; StmtList</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>StmtListOpt -&gt; StmtList</t>
+        </is>
+      </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>StmtListOpt -&gt; StmtList</t>
         </is>
       </c>
       <c r="AD64" t="inlineStr">
         <is>
-          <t>VarDeclRest -&gt; ArraySuffixOpt InitOpt VarDeclMore</t>
+          <t>StmtListOpt -&gt; StmtList</t>
+        </is>
+      </c>
+      <c r="AG64" t="inlineStr">
+        <is>
+          <t>StmtListOpt -&gt; StmtList</t>
+        </is>
+      </c>
+      <c r="AH64" t="inlineStr">
+        <is>
+          <t>StmtListOpt -&gt; StmtList</t>
+        </is>
+      </c>
+      <c r="AI64" t="inlineStr">
+        <is>
+          <t>StmtListOpt -&gt; StmtList</t>
+        </is>
+      </c>
+      <c r="AJ64" t="inlineStr">
+        <is>
+          <t>StmtListOpt -&gt; StmtList</t>
+        </is>
+      </c>
+      <c r="AL64" t="inlineStr">
+        <is>
+          <t>StmtListOpt -&gt; StmtList</t>
+        </is>
+      </c>
+      <c r="AM64" t="inlineStr">
+        <is>
+          <t>StmtListOpt -&gt; StmtList</t>
+        </is>
+      </c>
+      <c r="AN64" t="inlineStr">
+        <is>
+          <t>StmtListOpt -&gt; StmtList</t>
+        </is>
+      </c>
+      <c r="AP64" t="inlineStr">
+        <is>
+          <t>StmtListOpt -&gt; StmtList</t>
+        </is>
+      </c>
+      <c r="AQ64" t="inlineStr">
+        <is>
+          <t>StmtListOpt -&gt; StmtList</t>
+        </is>
+      </c>
+      <c r="AR64" t="inlineStr">
+        <is>
+          <t>StmtListOpt -&gt; StmtList</t>
+        </is>
+      </c>
+      <c r="AS64" t="inlineStr">
+        <is>
+          <t>StmtListOpt -&gt; StmtList</t>
+        </is>
+      </c>
+      <c r="AT64" t="inlineStr">
+        <is>
+          <t>StmtListOpt -&gt; StmtList</t>
+        </is>
+      </c>
+      <c r="AU64" t="inlineStr">
+        <is>
+          <t>StmtListOpt -&gt; StmtList</t>
+        </is>
+      </c>
+      <c r="AV64" t="inlineStr">
+        <is>
+          <t>StmtListOpt -&gt; StmtList</t>
+        </is>
+      </c>
+      <c r="AW64" t="inlineStr">
+        <is>
+          <t>StmtListOpt -&gt; StmtList</t>
+        </is>
+      </c>
+      <c r="AY64" t="inlineStr">
+        <is>
+          <t>StmtListOpt -&gt; StmtList</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>StructBodyOpt</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>StructBodyOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>StructBodyOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>StructBodyOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>StructBodyOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>StructBodyOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>StructBodyOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AD65" t="inlineStr">
+        <is>
+          <t>StructBodyOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AH65" t="inlineStr">
+        <is>
+          <t>StructBodyOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AJ65" t="inlineStr">
+        <is>
+          <t>StructBodyOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AL65" t="inlineStr">
+        <is>
+          <t>StructBodyOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AP65" t="inlineStr">
+        <is>
+          <t>StructBodyOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AS65" t="inlineStr">
+        <is>
+          <t>StructBodyOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AT65" t="inlineStr">
+        <is>
+          <t>StructBodyOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AU65" t="inlineStr">
+        <is>
+          <t>StructBodyOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AW65" t="inlineStr">
+        <is>
+          <t>StructBodyOpt -&gt; { DeclListOpt }</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>StructSpec</t>
+        </is>
+      </c>
+      <c r="AS66" t="inlineStr">
+        <is>
+          <t>StructSpec -&gt; struct ID StructBodyOpt</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>TypeSpec</t>
+        </is>
+      </c>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>TypeSpec -&gt; TYPE_NAME</t>
+        </is>
+      </c>
+      <c r="AH67" t="inlineStr">
+        <is>
+          <t>TypeSpec -&gt; BasicType</t>
+        </is>
+      </c>
+      <c r="AJ67" t="inlineStr">
+        <is>
+          <t>TypeSpec -&gt; BasicType</t>
+        </is>
+      </c>
+      <c r="AL67" t="inlineStr">
+        <is>
+          <t>TypeSpec -&gt; BasicType</t>
+        </is>
+      </c>
+      <c r="AP67" t="inlineStr">
+        <is>
+          <t>TypeSpec -&gt; BasicType</t>
+        </is>
+      </c>
+      <c r="AS67" t="inlineStr">
+        <is>
+          <t>TypeSpec -&gt; StructSpec</t>
+        </is>
+      </c>
+      <c r="AT67" t="inlineStr">
+        <is>
+          <t>TypeSpec -&gt; UnionSpec</t>
+        </is>
+      </c>
+      <c r="AU67" t="inlineStr">
+        <is>
+          <t>TypeSpec -&gt; BasicType</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>UnaryExpr</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>UnaryExpr -&gt; ! UnaryExpr</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>UnaryExpr -&gt; PostfixExpr</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>UnaryExpr -&gt; + UnaryExpr</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>UnaryExpr -&gt; - UnaryExpr</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>UnaryExpr -&gt; PostfixExpr</t>
+        </is>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>UnaryExpr -&gt; PostfixExpr</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>UnaryExpr -&gt; PostfixExpr</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>UnaryExpr -&gt; PostfixExpr</t>
+        </is>
+      </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>UnaryExpr -&gt; PostfixExpr</t>
+        </is>
+      </c>
+      <c r="AQ68" t="inlineStr">
+        <is>
+          <t>UnaryExpr -&gt; PostfixExpr</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>UnionBodyOpt</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>UnionBodyOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>UnionBodyOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>UnionBodyOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>UnionBodyOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>UnionBodyOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>UnionBodyOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>UnionBodyOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AH69" t="inlineStr">
+        <is>
+          <t>UnionBodyOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AJ69" t="inlineStr">
+        <is>
+          <t>UnionBodyOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AL69" t="inlineStr">
+        <is>
+          <t>UnionBodyOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AP69" t="inlineStr">
+        <is>
+          <t>UnionBodyOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AS69" t="inlineStr">
+        <is>
+          <t>UnionBodyOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AT69" t="inlineStr">
+        <is>
+          <t>UnionBodyOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AU69" t="inlineStr">
+        <is>
+          <t>UnionBodyOpt -&gt; epsilon</t>
+        </is>
+      </c>
+      <c r="AW69" t="inlineStr">
+        <is>
+          <t>UnionBodyOpt -&gt; { DeclListOpt }</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>UnionSpec</t>
+        </is>
+      </c>
+      <c r="AT70" t="inlineStr">
+        <is>
+          <t>UnionSpec -&gt; union ID UnionBodyOpt</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>VarDeclMore</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>VarDeclMore -&gt; , InitDecl VarDeclMore</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>VarDeclMore -&gt; epsilon</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>VarDeclRest</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>VarDeclRest -&gt; ArraySuffixOpt InitOpt VarDeclMore</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>VarDeclRest -&gt; ArraySuffixOpt InitOpt VarDeclMore</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>VarDeclRest -&gt; ArraySuffixOpt InitOpt VarDeclMore</t>
+        </is>
+      </c>
+      <c r="AE72" t="inlineStr">
+        <is>
+          <t>VarDeclRest -&gt; ArraySuffixOpt InitOpt VarDeclMore</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
           <t>WhileStmt</t>
         </is>
       </c>
-      <c r="AT65" t="inlineStr">
+      <c r="AV73" t="inlineStr">
         <is>
           <t>WhileStmt -&gt; while ( Expr ) Stmt</t>
         </is>
